--- a/dados/Sankey Despesas por Fonte (com DRU).xlsx
+++ b/dados/Sankey Despesas por Fonte (com DRU).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="145">
   <si>
     <t>Sankey Despesas por Fonte</t>
   </si>
@@ -446,12 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">DIVIDENDOS - UNIAO</t>
-  </si>
-  <si>
-    <t>Item Informação: Total</t>
-  </si>
-  <si>
-    <t>Mês Lançamento: Total</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="1">
-        <v>213759489253</v>
+        <v>12054226074</v>
       </c>
     </row>
     <row r="93">
@@ -1712,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>201705263179</v>
       </c>
     </row>
     <row r="94">
@@ -3423,2913 +3417,11 @@
         <v>7489262214</v>
       </c>
     </row>
-    <row r="219" ht="10.5" customHeight="1">
-      <c r="A219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" ht="10.5" customHeight="1">
-      <c r="A220" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-    </row>
-    <row r="221" ht="10.5" customHeight="1">
-      <c r="A221" t="s">
-        <v>145</v>
-      </c>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-    </row>
-    <row r="222" ht="10.5" customHeight="1">
-      <c r="A222" t="s">
-        <v>146</v>
-      </c>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>7</v>
-      </c>
-      <c r="B224" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" s="1">
-        <v>186080596277</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="1">
-        <v>38463297608</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="1">
-        <v>722669902</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>11</v>
-      </c>
-      <c r="B228" t="s">
-        <v>12</v>
-      </c>
-      <c r="C228" t="s">
-        <v>16</v>
-      </c>
-      <c r="D228" s="1">
-        <v>25601194725</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" t="s">
-        <v>17</v>
-      </c>
-      <c r="D229" s="1">
-        <v>218907092</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="1">
-        <v>70316794000.89</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="1">
-        <v>172436933.66</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>20</v>
-      </c>
-      <c r="D232" s="1">
-        <v>40678816230</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" s="1">
-        <v>86156256286</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>23</v>
-      </c>
-      <c r="B235" t="s">
-        <v>24</v>
-      </c>
-      <c r="C235" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="1">
-        <v>207662300759</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>23</v>
-      </c>
-      <c r="B236" t="s">
-        <v>24</v>
-      </c>
-      <c r="C236" t="s">
-        <v>20</v>
-      </c>
-      <c r="D236" s="1">
-        <v>13137486470</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>25</v>
-      </c>
-      <c r="B237" t="s">
-        <v>26</v>
-      </c>
-      <c r="C237" t="s">
-        <v>19</v>
-      </c>
-      <c r="D237" s="1">
-        <v>1363899309</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>27</v>
-      </c>
-      <c r="B238" t="s">
-        <v>28</v>
-      </c>
-      <c r="C238" t="s">
-        <v>18</v>
-      </c>
-      <c r="D238" s="1">
-        <v>20821950</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>29</v>
-      </c>
-      <c r="B239" t="s">
-        <v>30</v>
-      </c>
-      <c r="C239" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>29</v>
-      </c>
-      <c r="B240" t="s">
-        <v>30</v>
-      </c>
-      <c r="C240" t="s">
-        <v>20</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>31</v>
-      </c>
-      <c r="B241" t="s">
-        <v>32</v>
-      </c>
-      <c r="C241" t="s">
-        <v>16</v>
-      </c>
-      <c r="D241" s="1">
-        <v>9339832691</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>31</v>
-      </c>
-      <c r="B242" t="s">
-        <v>32</v>
-      </c>
-      <c r="C242" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="1">
-        <v>661823476</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>33</v>
-      </c>
-      <c r="B243" t="s">
-        <v>34</v>
-      </c>
-      <c r="C243" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="1">
-        <v>4712854</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>33</v>
-      </c>
-      <c r="B244" t="s">
-        <v>34</v>
-      </c>
-      <c r="C244" t="s">
-        <v>19</v>
-      </c>
-      <c r="D244" s="1">
-        <v>822993281</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>33</v>
-      </c>
-      <c r="B245" t="s">
-        <v>34</v>
-      </c>
-      <c r="C245" t="s">
-        <v>20</v>
-      </c>
-      <c r="D245" s="1">
-        <v>1404309739</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>35</v>
-      </c>
-      <c r="B246" t="s">
-        <v>36</v>
-      </c>
-      <c r="C246" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="1">
-        <v>8238185605</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>35</v>
-      </c>
-      <c r="B247" t="s">
-        <v>36</v>
-      </c>
-      <c r="C247" t="s">
-        <v>19</v>
-      </c>
-      <c r="D247" s="1">
-        <v>12973328408</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>35</v>
-      </c>
-      <c r="B248" t="s">
-        <v>36</v>
-      </c>
-      <c r="C248" t="s">
-        <v>20</v>
-      </c>
-      <c r="D248" s="1">
-        <v>410700000</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>37</v>
-      </c>
-      <c r="B249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C249" t="s">
-        <v>18</v>
-      </c>
-      <c r="D249" s="1">
-        <v>81533121</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>39</v>
-      </c>
-      <c r="B250" t="s">
-        <v>40</v>
-      </c>
-      <c r="C250" t="s">
-        <v>18</v>
-      </c>
-      <c r="D250" s="1">
-        <v>330150</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>41</v>
-      </c>
-      <c r="B251" t="s">
-        <v>42</v>
-      </c>
-      <c r="C251" t="s">
-        <v>15</v>
-      </c>
-      <c r="D251" s="1">
-        <v>7515858</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>41</v>
-      </c>
-      <c r="B252" t="s">
-        <v>42</v>
-      </c>
-      <c r="C252" t="s">
-        <v>17</v>
-      </c>
-      <c r="D252" s="1">
-        <v>2142649731</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>41</v>
-      </c>
-      <c r="B253" t="s">
-        <v>42</v>
-      </c>
-      <c r="C253" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" s="1">
-        <v>473703025.69</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>41</v>
-      </c>
-      <c r="B254" t="s">
-        <v>42</v>
-      </c>
-      <c r="C254" t="s">
-        <v>19</v>
-      </c>
-      <c r="D254" s="1">
-        <v>104761759.31</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>41</v>
-      </c>
-      <c r="B255" t="s">
-        <v>42</v>
-      </c>
-      <c r="C255" t="s">
-        <v>20</v>
-      </c>
-      <c r="D255" s="1">
-        <v>428182792</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>41</v>
-      </c>
-      <c r="B256" t="s">
-        <v>42</v>
-      </c>
-      <c r="C256" t="s">
-        <v>43</v>
-      </c>
-      <c r="D256" s="1">
-        <v>1783562848</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>44</v>
-      </c>
-      <c r="B257" t="s">
-        <v>45</v>
-      </c>
-      <c r="C257" t="s">
-        <v>19</v>
-      </c>
-      <c r="D257" s="1">
-        <v>35158970</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>46</v>
-      </c>
-      <c r="B258" t="s">
-        <v>47</v>
-      </c>
-      <c r="C258" t="s">
-        <v>43</v>
-      </c>
-      <c r="D258" s="1">
-        <v>9353380</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>48</v>
-      </c>
-      <c r="B259" t="s">
-        <v>49</v>
-      </c>
-      <c r="C259" t="s">
-        <v>14</v>
-      </c>
-      <c r="D259" s="1">
-        <v>2495317614</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>50</v>
-      </c>
-      <c r="B260" t="s">
-        <v>51</v>
-      </c>
-      <c r="C260" t="s">
-        <v>43</v>
-      </c>
-      <c r="D260" s="1">
-        <v>574584517</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>52</v>
-      </c>
-      <c r="B261" t="s">
-        <v>53</v>
-      </c>
-      <c r="C261" t="s">
-        <v>13</v>
-      </c>
-      <c r="D261" s="1">
-        <v>128624537</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>52</v>
-      </c>
-      <c r="B262" t="s">
-        <v>53</v>
-      </c>
-      <c r="C262" t="s">
-        <v>18</v>
-      </c>
-      <c r="D262" s="1">
-        <v>102020877</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>52</v>
-      </c>
-      <c r="B263" t="s">
-        <v>53</v>
-      </c>
-      <c r="C263" t="s">
-        <v>19</v>
-      </c>
-      <c r="D263" s="1">
-        <v>2606311</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>52</v>
-      </c>
-      <c r="B264" t="s">
-        <v>53</v>
-      </c>
-      <c r="C264" t="s">
-        <v>20</v>
-      </c>
-      <c r="D264" s="1">
-        <v>2374460700</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>52</v>
-      </c>
-      <c r="B265" t="s">
-        <v>53</v>
-      </c>
-      <c r="C265" t="s">
-        <v>22</v>
-      </c>
-      <c r="D265" s="1">
-        <v>10524702395</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>52</v>
-      </c>
-      <c r="B266" t="s">
-        <v>53</v>
-      </c>
-      <c r="C266" t="s">
-        <v>43</v>
-      </c>
-      <c r="D266" s="1">
-        <v>1026212359</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>54</v>
-      </c>
-      <c r="B267" t="s">
-        <v>55</v>
-      </c>
-      <c r="C267" t="s">
-        <v>18</v>
-      </c>
-      <c r="D267" s="1">
-        <v>16746432</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>54</v>
-      </c>
-      <c r="B268" t="s">
-        <v>55</v>
-      </c>
-      <c r="C268" t="s">
-        <v>20</v>
-      </c>
-      <c r="D268" s="1">
-        <v>700000000</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>54</v>
-      </c>
-      <c r="B269" t="s">
-        <v>55</v>
-      </c>
-      <c r="C269" t="s">
-        <v>43</v>
-      </c>
-      <c r="D269" s="1">
-        <v>104577855</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>56</v>
-      </c>
-      <c r="B270" t="s">
-        <v>57</v>
-      </c>
-      <c r="C270" t="s">
-        <v>13</v>
-      </c>
-      <c r="D270" s="1">
-        <v>7123057487</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>56</v>
-      </c>
-      <c r="B271" t="s">
-        <v>57</v>
-      </c>
-      <c r="C271" t="s">
-        <v>18</v>
-      </c>
-      <c r="D271" s="1">
-        <v>1691891931</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>56</v>
-      </c>
-      <c r="B272" t="s">
-        <v>57</v>
-      </c>
-      <c r="C272" t="s">
-        <v>20</v>
-      </c>
-      <c r="D272" s="1">
-        <v>66578036</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>56</v>
-      </c>
-      <c r="B273" t="s">
-        <v>57</v>
-      </c>
-      <c r="C273" t="s">
-        <v>43</v>
-      </c>
-      <c r="D273" s="1">
-        <v>642709754</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>58</v>
-      </c>
-      <c r="B274" t="s">
-        <v>59</v>
-      </c>
-      <c r="C274" t="s">
-        <v>18</v>
-      </c>
-      <c r="D274" s="1">
-        <v>48726370</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>58</v>
-      </c>
-      <c r="B275" t="s">
-        <v>59</v>
-      </c>
-      <c r="C275" t="s">
-        <v>43</v>
-      </c>
-      <c r="D275" s="1">
-        <v>36967325</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>60</v>
-      </c>
-      <c r="B276" t="s">
-        <v>61</v>
-      </c>
-      <c r="C276" t="s">
-        <v>18</v>
-      </c>
-      <c r="D276" s="1">
-        <v>91295288</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>60</v>
-      </c>
-      <c r="B277" t="s">
-        <v>61</v>
-      </c>
-      <c r="C277" t="s">
-        <v>19</v>
-      </c>
-      <c r="D277" s="1">
-        <v>2391045959</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>60</v>
-      </c>
-      <c r="B278" t="s">
-        <v>61</v>
-      </c>
-      <c r="C278" t="s">
-        <v>20</v>
-      </c>
-      <c r="D278" s="1">
-        <v>9723500</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>60</v>
-      </c>
-      <c r="B279" t="s">
-        <v>61</v>
-      </c>
-      <c r="C279" t="s">
-        <v>43</v>
-      </c>
-      <c r="D279" s="1">
-        <v>164652985</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>62</v>
-      </c>
-      <c r="B280" t="s">
-        <v>63</v>
-      </c>
-      <c r="C280" t="s">
-        <v>18</v>
-      </c>
-      <c r="D280" s="1">
-        <v>5998826</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>62</v>
-      </c>
-      <c r="B281" t="s">
-        <v>63</v>
-      </c>
-      <c r="C281" t="s">
-        <v>20</v>
-      </c>
-      <c r="D281" s="1">
-        <v>1909160427</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>62</v>
-      </c>
-      <c r="B282" t="s">
-        <v>63</v>
-      </c>
-      <c r="C282" t="s">
-        <v>43</v>
-      </c>
-      <c r="D282" s="1">
-        <v>88615395</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>64</v>
-      </c>
-      <c r="B283" t="s">
-        <v>65</v>
-      </c>
-      <c r="C283" t="s">
-        <v>15</v>
-      </c>
-      <c r="D283" s="1">
-        <v>700479208</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>64</v>
-      </c>
-      <c r="B284" t="s">
-        <v>65</v>
-      </c>
-      <c r="C284" t="s">
-        <v>18</v>
-      </c>
-      <c r="D284" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>66</v>
-      </c>
-      <c r="B285" t="s">
-        <v>67</v>
-      </c>
-      <c r="C285" t="s">
-        <v>17</v>
-      </c>
-      <c r="D285" s="1">
-        <v>79481309</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>66</v>
-      </c>
-      <c r="B286" t="s">
-        <v>67</v>
-      </c>
-      <c r="C286" t="s">
-        <v>18</v>
-      </c>
-      <c r="D286" s="1">
-        <v>1430883</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>66</v>
-      </c>
-      <c r="B287" t="s">
-        <v>67</v>
-      </c>
-      <c r="C287" t="s">
-        <v>19</v>
-      </c>
-      <c r="D287" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>66</v>
-      </c>
-      <c r="B288" t="s">
-        <v>67</v>
-      </c>
-      <c r="C288" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" s="1">
-        <v>119221964</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>66</v>
-      </c>
-      <c r="B289" t="s">
-        <v>67</v>
-      </c>
-      <c r="C289" t="s">
-        <v>43</v>
-      </c>
-      <c r="D289" s="1">
-        <v>7430883</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>68</v>
-      </c>
-      <c r="B290" t="s">
-        <v>69</v>
-      </c>
-      <c r="C290" t="s">
-        <v>17</v>
-      </c>
-      <c r="D290" s="1">
-        <v>29714013956</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>68</v>
-      </c>
-      <c r="B291" t="s">
-        <v>69</v>
-      </c>
-      <c r="C291" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291" s="1">
-        <v>19761643057</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>70</v>
-      </c>
-      <c r="B292" t="s">
-        <v>71</v>
-      </c>
-      <c r="C292" t="s">
-        <v>18</v>
-      </c>
-      <c r="D292" s="1">
-        <v>41574371</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>70</v>
-      </c>
-      <c r="B293" t="s">
-        <v>71</v>
-      </c>
-      <c r="C293" t="s">
-        <v>19</v>
-      </c>
-      <c r="D293" s="1">
-        <v>2397708434</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>70</v>
-      </c>
-      <c r="B294" t="s">
-        <v>71</v>
-      </c>
-      <c r="C294" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294" s="1">
-        <v>5728569</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>70</v>
-      </c>
-      <c r="B295" t="s">
-        <v>71</v>
-      </c>
-      <c r="C295" t="s">
-        <v>43</v>
-      </c>
-      <c r="D295" s="1">
-        <v>219109108</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>72</v>
-      </c>
-      <c r="B296" t="s">
-        <v>73</v>
-      </c>
-      <c r="C296" t="s">
-        <v>15</v>
-      </c>
-      <c r="D296" s="1">
-        <v>392776595</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>72</v>
-      </c>
-      <c r="B297" t="s">
-        <v>73</v>
-      </c>
-      <c r="C297" t="s">
-        <v>16</v>
-      </c>
-      <c r="D297" s="1">
-        <v>630815580</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>72</v>
-      </c>
-      <c r="B298" t="s">
-        <v>73</v>
-      </c>
-      <c r="C298" t="s">
-        <v>18</v>
-      </c>
-      <c r="D298" s="1">
-        <v>198837501</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>72</v>
-      </c>
-      <c r="B299" t="s">
-        <v>73</v>
-      </c>
-      <c r="C299" t="s">
-        <v>19</v>
-      </c>
-      <c r="D299" s="1">
-        <v>39877053192</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>72</v>
-      </c>
-      <c r="B300" t="s">
-        <v>73</v>
-      </c>
-      <c r="C300" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="1">
-        <v>12541166706</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>72</v>
-      </c>
-      <c r="B301" t="s">
-        <v>73</v>
-      </c>
-      <c r="C301" t="s">
-        <v>43</v>
-      </c>
-      <c r="D301" s="1">
-        <v>3874932017</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>74</v>
-      </c>
-      <c r="B302" t="s">
-        <v>75</v>
-      </c>
-      <c r="C302" t="s">
-        <v>22</v>
-      </c>
-      <c r="D302" s="1">
-        <v>758672993326</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>76</v>
-      </c>
-      <c r="B303" t="s">
-        <v>77</v>
-      </c>
-      <c r="C303" t="s">
-        <v>16</v>
-      </c>
-      <c r="D303" s="1">
-        <v>470779339</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>76</v>
-      </c>
-      <c r="B304" t="s">
-        <v>77</v>
-      </c>
-      <c r="C304" t="s">
-        <v>17</v>
-      </c>
-      <c r="D304" s="1">
-        <v>45000000000</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>76</v>
-      </c>
-      <c r="B305" t="s">
-        <v>77</v>
-      </c>
-      <c r="C305" t="s">
-        <v>18</v>
-      </c>
-      <c r="D305" s="1">
-        <v>213759489253</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>76</v>
-      </c>
-      <c r="B306" t="s">
-        <v>77</v>
-      </c>
-      <c r="C306" t="s">
-        <v>78</v>
-      </c>
-      <c r="D306" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>76</v>
-      </c>
-      <c r="B307" t="s">
-        <v>77</v>
-      </c>
-      <c r="C307" t="s">
-        <v>21</v>
-      </c>
-      <c r="D307" s="1">
-        <v>373249121928</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>76</v>
-      </c>
-      <c r="B308" t="s">
-        <v>77</v>
-      </c>
-      <c r="C308" t="s">
-        <v>22</v>
-      </c>
-      <c r="D308" s="1">
-        <v>30700000000</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>79</v>
-      </c>
-      <c r="B309" t="s">
-        <v>80</v>
-      </c>
-      <c r="C309" t="s">
-        <v>16</v>
-      </c>
-      <c r="D309" s="1">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>79</v>
-      </c>
-      <c r="B310" t="s">
-        <v>80</v>
-      </c>
-      <c r="C310" t="s">
-        <v>18</v>
-      </c>
-      <c r="D310" s="1">
-        <v>52133046</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>79</v>
-      </c>
-      <c r="B311" t="s">
-        <v>80</v>
-      </c>
-      <c r="C311" t="s">
-        <v>20</v>
-      </c>
-      <c r="D311" s="1">
-        <v>132662210</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>79</v>
-      </c>
-      <c r="B312" t="s">
-        <v>80</v>
-      </c>
-      <c r="C312" t="s">
-        <v>21</v>
-      </c>
-      <c r="D312" s="1">
-        <v>266400000</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>79</v>
-      </c>
-      <c r="B313" t="s">
-        <v>80</v>
-      </c>
-      <c r="C313" t="s">
-        <v>22</v>
-      </c>
-      <c r="D313" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>81</v>
-      </c>
-      <c r="B314" t="s">
-        <v>82</v>
-      </c>
-      <c r="C314" t="s">
-        <v>18</v>
-      </c>
-      <c r="D314" s="1">
-        <v>572401603</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>81</v>
-      </c>
-      <c r="B315" t="s">
-        <v>82</v>
-      </c>
-      <c r="C315" t="s">
-        <v>20</v>
-      </c>
-      <c r="D315" s="1">
-        <v>1102333366</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>83</v>
-      </c>
-      <c r="B316" t="s">
-        <v>84</v>
-      </c>
-      <c r="C316" t="s">
-        <v>13</v>
-      </c>
-      <c r="D316" s="1">
-        <v>1222579311</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>83</v>
-      </c>
-      <c r="B317" t="s">
-        <v>84</v>
-      </c>
-      <c r="C317" t="s">
-        <v>14</v>
-      </c>
-      <c r="D317" s="1">
-        <v>67812234</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318" t="s">
-        <v>84</v>
-      </c>
-      <c r="C318" t="s">
-        <v>15</v>
-      </c>
-      <c r="D318" s="1">
-        <v>211792388</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319" t="s">
-        <v>84</v>
-      </c>
-      <c r="C319" t="s">
-        <v>16</v>
-      </c>
-      <c r="D319" s="1">
-        <v>1101689082</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320" t="s">
-        <v>84</v>
-      </c>
-      <c r="C320" t="s">
-        <v>17</v>
-      </c>
-      <c r="D320" s="1">
-        <v>40450050</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321" t="s">
-        <v>84</v>
-      </c>
-      <c r="C321" t="s">
-        <v>18</v>
-      </c>
-      <c r="D321" s="1">
-        <v>8025479676</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>83</v>
-      </c>
-      <c r="B322" t="s">
-        <v>84</v>
-      </c>
-      <c r="C322" t="s">
-        <v>19</v>
-      </c>
-      <c r="D322" s="1">
-        <v>5919233</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>83</v>
-      </c>
-      <c r="B323" t="s">
-        <v>84</v>
-      </c>
-      <c r="C323" t="s">
-        <v>78</v>
-      </c>
-      <c r="D323" s="1">
-        <v>1206518759</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>83</v>
-      </c>
-      <c r="B324" t="s">
-        <v>84</v>
-      </c>
-      <c r="C324" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" s="1">
-        <v>1202651777</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>83</v>
-      </c>
-      <c r="B325" t="s">
-        <v>84</v>
-      </c>
-      <c r="C325" t="s">
-        <v>43</v>
-      </c>
-      <c r="D325" s="1">
-        <v>2033814085</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326" t="s">
-        <v>86</v>
-      </c>
-      <c r="C326" t="s">
-        <v>13</v>
-      </c>
-      <c r="D326" s="1">
-        <v>9678100917</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327" t="s">
-        <v>86</v>
-      </c>
-      <c r="C327" t="s">
-        <v>14</v>
-      </c>
-      <c r="D327" s="1">
-        <v>19168909216</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328" t="s">
-        <v>86</v>
-      </c>
-      <c r="C328" t="s">
-        <v>15</v>
-      </c>
-      <c r="D328" s="1">
-        <v>17208197594</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329" t="s">
-        <v>86</v>
-      </c>
-      <c r="C329" t="s">
-        <v>17</v>
-      </c>
-      <c r="D329" s="1">
-        <v>3055242723</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>85</v>
-      </c>
-      <c r="B330" t="s">
-        <v>86</v>
-      </c>
-      <c r="C330" t="s">
-        <v>18</v>
-      </c>
-      <c r="D330" s="1">
-        <v>999679156</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>85</v>
-      </c>
-      <c r="B331" t="s">
-        <v>86</v>
-      </c>
-      <c r="C331" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" s="1">
-        <v>1961866114</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>87</v>
-      </c>
-      <c r="B332" t="s">
-        <v>88</v>
-      </c>
-      <c r="C332" t="s">
-        <v>21</v>
-      </c>
-      <c r="D332" s="1">
-        <v>5273000000</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>87</v>
-      </c>
-      <c r="B333" t="s">
-        <v>88</v>
-      </c>
-      <c r="C333" t="s">
-        <v>22</v>
-      </c>
-      <c r="D333" s="1">
-        <v>21092000000</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>89</v>
-      </c>
-      <c r="B334" t="s">
-        <v>90</v>
-      </c>
-      <c r="C334" t="s">
-        <v>13</v>
-      </c>
-      <c r="D334" s="1">
-        <v>10024666048</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>89</v>
-      </c>
-      <c r="B335" t="s">
-        <v>90</v>
-      </c>
-      <c r="C335" t="s">
-        <v>14</v>
-      </c>
-      <c r="D335" s="1">
-        <v>36719579629</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>89</v>
-      </c>
-      <c r="B336" t="s">
-        <v>90</v>
-      </c>
-      <c r="C336" t="s">
-        <v>15</v>
-      </c>
-      <c r="D336" s="1">
-        <v>81039690331</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>89</v>
-      </c>
-      <c r="B337" t="s">
-        <v>90</v>
-      </c>
-      <c r="C337" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="1">
-        <v>41554314599</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s">
-        <v>89</v>
-      </c>
-      <c r="B338" t="s">
-        <v>90</v>
-      </c>
-      <c r="C338" t="s">
-        <v>78</v>
-      </c>
-      <c r="D338" s="1">
-        <v>14784365402</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>89</v>
-      </c>
-      <c r="B339" t="s">
-        <v>90</v>
-      </c>
-      <c r="C339" t="s">
-        <v>20</v>
-      </c>
-      <c r="D339" s="1">
-        <v>452446000</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>91</v>
-      </c>
-      <c r="B340" t="s">
-        <v>92</v>
-      </c>
-      <c r="C340" t="s">
-        <v>78</v>
-      </c>
-      <c r="D340" s="1">
-        <v>408631890153</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>93</v>
-      </c>
-      <c r="B341" t="s">
-        <v>94</v>
-      </c>
-      <c r="C341" t="s">
-        <v>14</v>
-      </c>
-      <c r="D341" s="1">
-        <v>14680556452</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>95</v>
-      </c>
-      <c r="B342" t="s">
-        <v>96</v>
-      </c>
-      <c r="C342" t="s">
-        <v>22</v>
-      </c>
-      <c r="D342" s="1">
-        <v>40843945050</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>97</v>
-      </c>
-      <c r="B343" t="s">
-        <v>98</v>
-      </c>
-      <c r="C343" t="s">
-        <v>20</v>
-      </c>
-      <c r="D343" s="1">
-        <v>2763659941</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>99</v>
-      </c>
-      <c r="B344" t="s">
-        <v>100</v>
-      </c>
-      <c r="C344" t="s">
-        <v>22</v>
-      </c>
-      <c r="D344" s="1">
-        <v>6965041</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>101</v>
-      </c>
-      <c r="B345" t="s">
-        <v>102</v>
-      </c>
-      <c r="C345" t="s">
-        <v>20</v>
-      </c>
-      <c r="D345" s="1">
-        <v>53015080</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>101</v>
-      </c>
-      <c r="B346" t="s">
-        <v>102</v>
-      </c>
-      <c r="C346" t="s">
-        <v>43</v>
-      </c>
-      <c r="D346" s="1">
-        <v>51424400</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>103</v>
-      </c>
-      <c r="B347" t="s">
-        <v>104</v>
-      </c>
-      <c r="C347" t="s">
-        <v>20</v>
-      </c>
-      <c r="D347" s="1">
-        <v>18437374</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>105</v>
-      </c>
-      <c r="B348" t="s">
-        <v>106</v>
-      </c>
-      <c r="C348" t="s">
-        <v>20</v>
-      </c>
-      <c r="D348" s="1">
-        <v>14947283</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>105</v>
-      </c>
-      <c r="B349" t="s">
-        <v>106</v>
-      </c>
-      <c r="C349" t="s">
-        <v>43</v>
-      </c>
-      <c r="D349" s="1">
-        <v>34984284</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>107</v>
-      </c>
-      <c r="B350" t="s">
-        <v>108</v>
-      </c>
-      <c r="C350" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350" s="1">
-        <v>21754448443</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>109</v>
-      </c>
-      <c r="B351" t="s">
-        <v>110</v>
-      </c>
-      <c r="C351" t="s">
-        <v>22</v>
-      </c>
-      <c r="D351" s="1">
-        <v>242470907</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>111</v>
-      </c>
-      <c r="B352" t="s">
-        <v>112</v>
-      </c>
-      <c r="C352" t="s">
-        <v>13</v>
-      </c>
-      <c r="D352" s="1">
-        <v>33407580</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>111</v>
-      </c>
-      <c r="B353" t="s">
-        <v>112</v>
-      </c>
-      <c r="C353" t="s">
-        <v>18</v>
-      </c>
-      <c r="D353" s="1">
-        <v>260160840.09</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>111</v>
-      </c>
-      <c r="B354" t="s">
-        <v>112</v>
-      </c>
-      <c r="C354" t="s">
-        <v>19</v>
-      </c>
-      <c r="D354" s="1">
-        <v>2619818.91</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>111</v>
-      </c>
-      <c r="B355" t="s">
-        <v>112</v>
-      </c>
-      <c r="C355" t="s">
-        <v>20</v>
-      </c>
-      <c r="D355" s="1">
-        <v>1349291493</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>111</v>
-      </c>
-      <c r="B356" t="s">
-        <v>112</v>
-      </c>
-      <c r="C356" t="s">
-        <v>43</v>
-      </c>
-      <c r="D356" s="1">
-        <v>3063336165</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>113</v>
-      </c>
-      <c r="B357" t="s">
-        <v>114</v>
-      </c>
-      <c r="C357" t="s">
-        <v>21</v>
-      </c>
-      <c r="D357" s="1">
-        <v>103472055</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>113</v>
-      </c>
-      <c r="B358" t="s">
-        <v>114</v>
-      </c>
-      <c r="C358" t="s">
-        <v>22</v>
-      </c>
-      <c r="D358" s="1">
-        <v>22395426906</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>115</v>
-      </c>
-      <c r="B359" t="s">
-        <v>116</v>
-      </c>
-      <c r="C359" t="s">
-        <v>13</v>
-      </c>
-      <c r="D359" s="1">
-        <v>1241691831</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>115</v>
-      </c>
-      <c r="B360" t="s">
-        <v>116</v>
-      </c>
-      <c r="C360" t="s">
-        <v>14</v>
-      </c>
-      <c r="D360" s="1">
-        <v>247554806</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>115</v>
-      </c>
-      <c r="B361" t="s">
-        <v>116</v>
-      </c>
-      <c r="C361" t="s">
-        <v>15</v>
-      </c>
-      <c r="D361" s="1">
-        <v>335731279</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>115</v>
-      </c>
-      <c r="B362" t="s">
-        <v>116</v>
-      </c>
-      <c r="C362" t="s">
-        <v>16</v>
-      </c>
-      <c r="D362" s="1">
-        <v>24262560</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>115</v>
-      </c>
-      <c r="B363" t="s">
-        <v>116</v>
-      </c>
-      <c r="C363" t="s">
-        <v>17</v>
-      </c>
-      <c r="D363" s="1">
-        <v>138548584</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>115</v>
-      </c>
-      <c r="B364" t="s">
-        <v>116</v>
-      </c>
-      <c r="C364" t="s">
-        <v>18</v>
-      </c>
-      <c r="D364" s="1">
-        <v>3562483949.74</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>115</v>
-      </c>
-      <c r="B365" t="s">
-        <v>116</v>
-      </c>
-      <c r="C365" t="s">
-        <v>19</v>
-      </c>
-      <c r="D365" s="1">
-        <v>499967869.18</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>115</v>
-      </c>
-      <c r="B366" t="s">
-        <v>116</v>
-      </c>
-      <c r="C366" t="s">
-        <v>20</v>
-      </c>
-      <c r="D366" s="1">
-        <v>1049761086</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>115</v>
-      </c>
-      <c r="B367" t="s">
-        <v>116</v>
-      </c>
-      <c r="C367" t="s">
-        <v>43</v>
-      </c>
-      <c r="D367" s="1">
-        <v>1699679393</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>117</v>
-      </c>
-      <c r="B368" t="s">
-        <v>118</v>
-      </c>
-      <c r="C368" t="s">
-        <v>18</v>
-      </c>
-      <c r="D368" s="1">
-        <v>160161794</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>117</v>
-      </c>
-      <c r="B369" t="s">
-        <v>118</v>
-      </c>
-      <c r="C369" t="s">
-        <v>43</v>
-      </c>
-      <c r="D369" s="1">
-        <v>28765</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>119</v>
-      </c>
-      <c r="B370" t="s">
-        <v>120</v>
-      </c>
-      <c r="C370" t="s">
-        <v>13</v>
-      </c>
-      <c r="D370" s="1">
-        <v>449396231</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>119</v>
-      </c>
-      <c r="B371" t="s">
-        <v>120</v>
-      </c>
-      <c r="C371" t="s">
-        <v>14</v>
-      </c>
-      <c r="D371" s="1">
-        <v>386490698</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>119</v>
-      </c>
-      <c r="B372" t="s">
-        <v>120</v>
-      </c>
-      <c r="C372" t="s">
-        <v>18</v>
-      </c>
-      <c r="D372" s="1">
-        <v>354483576</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>119</v>
-      </c>
-      <c r="B373" t="s">
-        <v>120</v>
-      </c>
-      <c r="C373" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373" s="1">
-        <v>1041794</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>119</v>
-      </c>
-      <c r="B374" t="s">
-        <v>120</v>
-      </c>
-      <c r="C374" t="s">
-        <v>20</v>
-      </c>
-      <c r="D374" s="1">
-        <v>37197581</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>119</v>
-      </c>
-      <c r="B375" t="s">
-        <v>120</v>
-      </c>
-      <c r="C375" t="s">
-        <v>43</v>
-      </c>
-      <c r="D375" s="1">
-        <v>414721756</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>121</v>
-      </c>
-      <c r="B376" t="s">
-        <v>122</v>
-      </c>
-      <c r="C376" t="s">
-        <v>18</v>
-      </c>
-      <c r="D376" s="1">
-        <v>1482119233</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>121</v>
-      </c>
-      <c r="B377" t="s">
-        <v>122</v>
-      </c>
-      <c r="C377" t="s">
-        <v>20</v>
-      </c>
-      <c r="D377" s="1">
-        <v>455650184</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>121</v>
-      </c>
-      <c r="B378" t="s">
-        <v>122</v>
-      </c>
-      <c r="C378" t="s">
-        <v>43</v>
-      </c>
-      <c r="D378" s="1">
-        <v>418860700</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>123</v>
-      </c>
-      <c r="B379" t="s">
-        <v>124</v>
-      </c>
-      <c r="C379" t="s">
-        <v>13</v>
-      </c>
-      <c r="D379" s="1">
-        <v>82887448</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>123</v>
-      </c>
-      <c r="B380" t="s">
-        <v>124</v>
-      </c>
-      <c r="C380" t="s">
-        <v>14</v>
-      </c>
-      <c r="D380" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>123</v>
-      </c>
-      <c r="B381" t="s">
-        <v>124</v>
-      </c>
-      <c r="C381" t="s">
-        <v>15</v>
-      </c>
-      <c r="D381" s="1">
-        <v>29820227</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>123</v>
-      </c>
-      <c r="B382" t="s">
-        <v>124</v>
-      </c>
-      <c r="C382" t="s">
-        <v>16</v>
-      </c>
-      <c r="D382" s="1">
-        <v>40954339</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>123</v>
-      </c>
-      <c r="B383" t="s">
-        <v>124</v>
-      </c>
-      <c r="C383" t="s">
-        <v>17</v>
-      </c>
-      <c r="D383" s="1">
-        <v>30599380590</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>123</v>
-      </c>
-      <c r="B384" t="s">
-        <v>124</v>
-      </c>
-      <c r="C384" t="s">
-        <v>18</v>
-      </c>
-      <c r="D384" s="1">
-        <v>3938256577</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>123</v>
-      </c>
-      <c r="B385" t="s">
-        <v>124</v>
-      </c>
-      <c r="C385" t="s">
-        <v>19</v>
-      </c>
-      <c r="D385" s="1">
-        <v>35918569</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>123</v>
-      </c>
-      <c r="B386" t="s">
-        <v>124</v>
-      </c>
-      <c r="C386" t="s">
-        <v>78</v>
-      </c>
-      <c r="D386" s="1">
-        <v>1550036796</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>123</v>
-      </c>
-      <c r="B387" t="s">
-        <v>124</v>
-      </c>
-      <c r="C387" t="s">
-        <v>20</v>
-      </c>
-      <c r="D387" s="1">
-        <v>14692430517</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>123</v>
-      </c>
-      <c r="B388" t="s">
-        <v>124</v>
-      </c>
-      <c r="C388" t="s">
-        <v>21</v>
-      </c>
-      <c r="D388" s="1">
-        <v>4013204</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>123</v>
-      </c>
-      <c r="B389" t="s">
-        <v>124</v>
-      </c>
-      <c r="C389" t="s">
-        <v>22</v>
-      </c>
-      <c r="D389" s="1">
-        <v>15753572</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>123</v>
-      </c>
-      <c r="B390" t="s">
-        <v>124</v>
-      </c>
-      <c r="C390" t="s">
-        <v>43</v>
-      </c>
-      <c r="D390" s="1">
-        <v>6438106770</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>125</v>
-      </c>
-      <c r="B391" t="s">
-        <v>126</v>
-      </c>
-      <c r="C391" t="s">
-        <v>15</v>
-      </c>
-      <c r="D391" s="1">
-        <v>1141634</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>125</v>
-      </c>
-      <c r="B392" t="s">
-        <v>126</v>
-      </c>
-      <c r="C392" t="s">
-        <v>16</v>
-      </c>
-      <c r="D392" s="1">
-        <v>35470568</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>125</v>
-      </c>
-      <c r="B393" t="s">
-        <v>126</v>
-      </c>
-      <c r="C393" t="s">
-        <v>17</v>
-      </c>
-      <c r="D393" s="1">
-        <v>30500000</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>125</v>
-      </c>
-      <c r="B394" t="s">
-        <v>126</v>
-      </c>
-      <c r="C394" t="s">
-        <v>18</v>
-      </c>
-      <c r="D394" s="1">
-        <v>354322758</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>125</v>
-      </c>
-      <c r="B395" t="s">
-        <v>126</v>
-      </c>
-      <c r="C395" t="s">
-        <v>20</v>
-      </c>
-      <c r="D395" s="1">
-        <v>404819811</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>125</v>
-      </c>
-      <c r="B396" t="s">
-        <v>126</v>
-      </c>
-      <c r="C396" t="s">
-        <v>43</v>
-      </c>
-      <c r="D396" s="1">
-        <v>355000</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>127</v>
-      </c>
-      <c r="B397" t="s">
-        <v>128</v>
-      </c>
-      <c r="C397" t="s">
-        <v>18</v>
-      </c>
-      <c r="D397" s="1">
-        <v>145593638.14</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>127</v>
-      </c>
-      <c r="B398" t="s">
-        <v>128</v>
-      </c>
-      <c r="C398" t="s">
-        <v>19</v>
-      </c>
-      <c r="D398" s="1">
-        <v>49799498.86</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>127</v>
-      </c>
-      <c r="B399" t="s">
-        <v>128</v>
-      </c>
-      <c r="C399" t="s">
-        <v>20</v>
-      </c>
-      <c r="D399" s="1">
-        <v>4790000</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>129</v>
-      </c>
-      <c r="B400" t="s">
-        <v>130</v>
-      </c>
-      <c r="C400" t="s">
-        <v>18</v>
-      </c>
-      <c r="D400" s="1">
-        <v>4189350890</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>131</v>
-      </c>
-      <c r="B401" t="s">
-        <v>132</v>
-      </c>
-      <c r="C401" t="s">
-        <v>13</v>
-      </c>
-      <c r="D401" s="1">
-        <v>329518589</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>131</v>
-      </c>
-      <c r="B402" t="s">
-        <v>132</v>
-      </c>
-      <c r="C402" t="s">
-        <v>15</v>
-      </c>
-      <c r="D402" s="1">
-        <v>2148025117</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>131</v>
-      </c>
-      <c r="B403" t="s">
-        <v>132</v>
-      </c>
-      <c r="C403" t="s">
-        <v>16</v>
-      </c>
-      <c r="D403" s="1">
-        <v>535131462</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>131</v>
-      </c>
-      <c r="B404" t="s">
-        <v>132</v>
-      </c>
-      <c r="C404" t="s">
-        <v>18</v>
-      </c>
-      <c r="D404" s="1">
-        <v>884466992</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>131</v>
-      </c>
-      <c r="B405" t="s">
-        <v>132</v>
-      </c>
-      <c r="C405" t="s">
-        <v>19</v>
-      </c>
-      <c r="D405" s="1">
-        <v>125596721</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>131</v>
-      </c>
-      <c r="B406" t="s">
-        <v>132</v>
-      </c>
-      <c r="C406" t="s">
-        <v>78</v>
-      </c>
-      <c r="D406" s="1">
-        <v>9973858451</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>131</v>
-      </c>
-      <c r="B407" t="s">
-        <v>132</v>
-      </c>
-      <c r="C407" t="s">
-        <v>20</v>
-      </c>
-      <c r="D407" s="1">
-        <v>964494820</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>131</v>
-      </c>
-      <c r="B408" t="s">
-        <v>132</v>
-      </c>
-      <c r="C408" t="s">
-        <v>43</v>
-      </c>
-      <c r="D408" s="1">
-        <v>1851456013</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>133</v>
-      </c>
-      <c r="B409" t="s">
-        <v>134</v>
-      </c>
-      <c r="C409" t="s">
-        <v>13</v>
-      </c>
-      <c r="D409" s="1">
-        <v>56885786</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>133</v>
-      </c>
-      <c r="B410" t="s">
-        <v>134</v>
-      </c>
-      <c r="C410" t="s">
-        <v>15</v>
-      </c>
-      <c r="D410" s="1">
-        <v>5466559114</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>133</v>
-      </c>
-      <c r="B411" t="s">
-        <v>134</v>
-      </c>
-      <c r="C411" t="s">
-        <v>16</v>
-      </c>
-      <c r="D411" s="1">
-        <v>234398442</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>133</v>
-      </c>
-      <c r="B412" t="s">
-        <v>134</v>
-      </c>
-      <c r="C412" t="s">
-        <v>17</v>
-      </c>
-      <c r="D412" s="1">
-        <v>87344483</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>133</v>
-      </c>
-      <c r="B413" t="s">
-        <v>134</v>
-      </c>
-      <c r="C413" t="s">
-        <v>18</v>
-      </c>
-      <c r="D413" s="1">
-        <v>227273071</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>133</v>
-      </c>
-      <c r="B414" t="s">
-        <v>134</v>
-      </c>
-      <c r="C414" t="s">
-        <v>19</v>
-      </c>
-      <c r="D414" s="1">
-        <v>197637103</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>133</v>
-      </c>
-      <c r="B415" t="s">
-        <v>134</v>
-      </c>
-      <c r="C415" t="s">
-        <v>20</v>
-      </c>
-      <c r="D415" s="1">
-        <v>8320230499</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>133</v>
-      </c>
-      <c r="B416" t="s">
-        <v>134</v>
-      </c>
-      <c r="C416" t="s">
-        <v>22</v>
-      </c>
-      <c r="D416" s="1">
-        <v>67799328459</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>133</v>
-      </c>
-      <c r="B417" t="s">
-        <v>134</v>
-      </c>
-      <c r="C417" t="s">
-        <v>43</v>
-      </c>
-      <c r="D417" s="1">
-        <v>8850218246</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>135</v>
-      </c>
-      <c r="B418" t="s">
-        <v>136</v>
-      </c>
-      <c r="C418" t="s">
-        <v>16</v>
-      </c>
-      <c r="D418" s="1">
-        <v>102831218</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>135</v>
-      </c>
-      <c r="B419" t="s">
-        <v>136</v>
-      </c>
-      <c r="C419" t="s">
-        <v>20</v>
-      </c>
-      <c r="D419" s="1">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>137</v>
-      </c>
-      <c r="B420" t="s">
-        <v>138</v>
-      </c>
-      <c r="C420" t="s">
-        <v>20</v>
-      </c>
-      <c r="D420" s="1">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>139</v>
-      </c>
-      <c r="B421" t="s">
-        <v>140</v>
-      </c>
-      <c r="C421" t="s">
-        <v>15</v>
-      </c>
-      <c r="D421" s="1">
-        <v>792570</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>139</v>
-      </c>
-      <c r="B422" t="s">
-        <v>140</v>
-      </c>
-      <c r="C422" t="s">
-        <v>18</v>
-      </c>
-      <c r="D422" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>139</v>
-      </c>
-      <c r="B423" t="s">
-        <v>140</v>
-      </c>
-      <c r="C423" t="s">
-        <v>20</v>
-      </c>
-      <c r="D423" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>141</v>
-      </c>
-      <c r="B424" t="s">
-        <v>142</v>
-      </c>
-      <c r="C424" t="s">
-        <v>18</v>
-      </c>
-      <c r="D424" s="1">
-        <v>45485000</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>141</v>
-      </c>
-      <c r="B425" t="s">
-        <v>142</v>
-      </c>
-      <c r="C425" t="s">
-        <v>19</v>
-      </c>
-      <c r="D425" s="1">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>141</v>
-      </c>
-      <c r="B426" t="s">
-        <v>142</v>
-      </c>
-      <c r="C426" t="s">
-        <v>20</v>
-      </c>
-      <c r="D426" s="1">
-        <v>3625521</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>141</v>
-      </c>
-      <c r="B427" t="s">
-        <v>142</v>
-      </c>
-      <c r="C427" t="s">
-        <v>43</v>
-      </c>
-      <c r="D427" s="1">
-        <v>13811951</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>143</v>
-      </c>
-      <c r="B428" t="s">
-        <v>144</v>
-      </c>
-      <c r="C428" t="s">
-        <v>22</v>
-      </c>
-      <c r="D428" s="1">
-        <v>7489262214</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A222:D222"/>
   </mergeCells>
 </worksheet>
 </file>